--- a/Team-Data/2008-09/4-5-2008-09.xlsx
+++ b/Team-Data/2008-09/4-5-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -768,19 +835,19 @@
         <v>16</v>
       </c>
       <c r="AL2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM2" t="n">
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO2" t="n">
         <v>22</v>
       </c>
       <c r="AP2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
@@ -792,7 +859,7 @@
         <v>21</v>
       </c>
       <c r="AT2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU2" t="n">
         <v>22</v>
@@ -804,7 +871,7 @@
         <v>13</v>
       </c>
       <c r="AX2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>8</v>
@@ -813,13 +880,13 @@
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB2" t="n">
         <v>21</v>
       </c>
       <c r="BC2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3" t="n">
         <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>0.75</v>
+        <v>0.753</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
         <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.487</v>
+        <v>0.486</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
@@ -878,16 +945,16 @@
         <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="O3" t="n">
         <v>19.6</v>
       </c>
       <c r="P3" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
@@ -899,7 +966,7 @@
         <v>42.4</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
@@ -908,25 +975,25 @@
         <v>7.6</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="AC3" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -962,10 +1029,10 @@
         <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR3" t="n">
         <v>21</v>
@@ -998,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -1030,52 +1097,52 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" t="n">
         <v>34</v>
       </c>
       <c r="F4" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" t="n">
-        <v>0.442</v>
+        <v>0.447</v>
       </c>
       <c r="H4" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I4" t="n">
         <v>35.2</v>
       </c>
       <c r="J4" t="n">
-        <v>76.90000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O4" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P4" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.741</v>
+        <v>0.74</v>
       </c>
       <c r="R4" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S4" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="T4" t="n">
         <v>39.7</v>
@@ -1084,7 +1151,7 @@
         <v>21.4</v>
       </c>
       <c r="V4" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W4" t="n">
         <v>7.1</v>
@@ -1093,22 +1160,22 @@
         <v>4.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA4" t="n">
         <v>20.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1120,7 +1187,7 @@
         <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL4" t="n">
         <v>22</v>
@@ -1138,10 +1205,10 @@
         <v>22</v>
       </c>
       <c r="AN4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP4" t="n">
         <v>20</v>
@@ -1162,10 +1229,10 @@
         <v>11</v>
       </c>
       <c r="AV4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW4" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AX4" t="n">
         <v>14</v>
@@ -1183,7 +1250,7 @@
         <v>29</v>
       </c>
       <c r="BC4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -1212,25 +1279,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" t="n">
         <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>0.474</v>
+        <v>0.481</v>
       </c>
       <c r="H5" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
         <v>0.456</v>
@@ -1245,25 +1312,25 @@
         <v>0.382</v>
       </c>
       <c r="O5" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.794</v>
+        <v>0.793</v>
       </c>
       <c r="R5" t="n">
         <v>11.9</v>
       </c>
       <c r="S5" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
         <v>42.3</v>
       </c>
       <c r="U5" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V5" t="n">
         <v>14.8</v>
@@ -1281,28 +1348,28 @@
         <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
         <v>16</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
@@ -1323,10 +1390,10 @@
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
@@ -1335,7 +1402,7 @@
         <v>6</v>
       </c>
       <c r="AS5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT5" t="n">
         <v>8</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -1397,49 +1464,49 @@
         <v>76</v>
       </c>
       <c r="E6" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.803</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J6" t="n">
         <v>78.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.467</v>
+        <v>0.466</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.391</v>
+        <v>0.389</v>
       </c>
       <c r="O6" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P6" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R6" t="n">
         <v>10.6</v>
       </c>
       <c r="S6" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T6" t="n">
         <v>42.1</v>
@@ -1448,7 +1515,7 @@
         <v>20.2</v>
       </c>
       <c r="V6" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
@@ -1457,22 +1524,22 @@
         <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.9</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1487,13 +1554,13 @@
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL6" t="n">
         <v>3</v>
@@ -1505,28 +1572,28 @@
         <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
         <v>20</v>
       </c>
       <c r="AS6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU6" t="n">
         <v>23</v>
       </c>
       <c r="AV6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW6" t="n">
         <v>15</v>
@@ -1538,7 +1605,7 @@
         <v>4</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA6" t="n">
         <v>21</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -1576,58 +1643,58 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" t="n">
         <v>31</v>
       </c>
       <c r="G7" t="n">
-        <v>0.597</v>
+        <v>0.592</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
       </c>
       <c r="I7" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J7" t="n">
         <v>82.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.462</v>
+        <v>0.46</v>
       </c>
       <c r="L7" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M7" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.35</v>
+        <v>0.346</v>
       </c>
       <c r="O7" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P7" t="n">
         <v>22.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="R7" t="n">
         <v>11</v>
       </c>
       <c r="S7" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T7" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="U7" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V7" t="n">
         <v>12.9</v>
@@ -1642,19 +1709,19 @@
         <v>4.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA7" t="n">
         <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.7</v>
+        <v>101.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1666,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1678,13 +1745,13 @@
         <v>9</v>
       </c>
       <c r="AL7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN7" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AO7" t="n">
         <v>24</v>
@@ -1696,7 +1763,7 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS7" t="n">
         <v>6</v>
@@ -1705,7 +1772,7 @@
         <v>5</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>8</v>
@@ -1717,19 +1784,19 @@
         <v>8</v>
       </c>
       <c r="AY7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB7" t="n">
         <v>10</v>
       </c>
       <c r="BC7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" t="n">
         <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>0.667</v>
+        <v>0.662</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
@@ -1776,19 +1843,19 @@
         <v>37.3</v>
       </c>
       <c r="J8" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="L8" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M8" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="O8" t="n">
         <v>23</v>
@@ -1797,16 +1864,16 @@
         <v>30.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R8" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S8" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T8" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U8" t="n">
         <v>22.3</v>
@@ -1830,13 +1897,13 @@
         <v>23.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1860,13 +1927,13 @@
         <v>5</v>
       </c>
       <c r="AL8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM8" t="n">
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1875,16 +1942,16 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AS8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AT8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU8" t="n">
         <v>5</v>
@@ -1908,10 +1975,10 @@
         <v>2</v>
       </c>
       <c r="BB8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" t="n">
         <v>40</v>
       </c>
       <c r="G9" t="n">
-        <v>0.481</v>
+        <v>0.474</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
@@ -1967,22 +2034,22 @@
         <v>4.6</v>
       </c>
       <c r="M9" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="N9" t="n">
-        <v>0.349</v>
+        <v>0.351</v>
       </c>
       <c r="O9" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P9" t="n">
         <v>22.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.754</v>
+        <v>0.753</v>
       </c>
       <c r="R9" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S9" t="n">
         <v>29.6</v>
@@ -2009,28 +2076,28 @@
         <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>16</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI9" t="n">
         <v>22</v>
@@ -2039,7 +2106,7 @@
         <v>17</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
         <v>28</v>
@@ -2048,7 +2115,7 @@
         <v>28</v>
       </c>
       <c r="AN9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
         <v>29</v>
@@ -2078,22 +2145,22 @@
         <v>29</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB9" t="n">
         <v>30</v>
       </c>
       <c r="BC9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="n">
         <v>49</v>
       </c>
       <c r="G10" t="n">
-        <v>0.364</v>
+        <v>0.355</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
@@ -2143,7 +2210,7 @@
         <v>86.2</v>
       </c>
       <c r="K10" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L10" t="n">
         <v>6.7</v>
@@ -2152,31 +2219,31 @@
         <v>18.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="O10" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="P10" t="n">
         <v>29.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.791</v>
+        <v>0.79</v>
       </c>
       <c r="R10" t="n">
         <v>11.6</v>
       </c>
       <c r="S10" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T10" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U10" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V10" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W10" t="n">
         <v>7.9</v>
@@ -2185,22 +2252,22 @@
         <v>6.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z10" t="n">
         <v>22.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>109</v>
+        <v>109.1</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.5</v>
+        <v>-3.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2212,7 +2279,7 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2224,7 +2291,7 @@
         <v>11</v>
       </c>
       <c r="AL10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM10" t="n">
         <v>17</v>
@@ -2245,16 +2312,16 @@
         <v>9</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU10" t="n">
         <v>14</v>
       </c>
       <c r="AV10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -2304,46 +2371,46 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" t="n">
         <v>28</v>
       </c>
       <c r="G11" t="n">
-        <v>0.636</v>
+        <v>0.632</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J11" t="n">
-        <v>79.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K11" t="n">
         <v>0.452</v>
       </c>
       <c r="L11" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M11" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O11" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P11" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.805</v>
+        <v>0.804</v>
       </c>
       <c r="R11" t="n">
         <v>10.4</v>
@@ -2352,19 +2419,19 @@
         <v>32.4</v>
       </c>
       <c r="T11" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U11" t="n">
         <v>20.4</v>
       </c>
       <c r="V11" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W11" t="n">
         <v>6.7</v>
       </c>
       <c r="X11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y11" t="n">
         <v>5.3</v>
@@ -2379,13 +2446,13 @@
         <v>98.40000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF11" t="n">
         <v>8</v>
@@ -2394,10 +2461,10 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
         <v>21</v>
@@ -2412,16 +2479,16 @@
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO11" t="n">
         <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR11" t="n">
         <v>23</v>
@@ -2436,13 +2503,13 @@
         <v>20</v>
       </c>
       <c r="AV11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AW11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY11" t="n">
         <v>24</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" t="n">
         <v>44</v>
       </c>
       <c r="G12" t="n">
-        <v>0.429</v>
+        <v>0.421</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J12" t="n">
         <v>86.3</v>
       </c>
       <c r="K12" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L12" t="n">
         <v>7.9</v>
@@ -2516,16 +2583,16 @@
         <v>21</v>
       </c>
       <c r="N12" t="n">
-        <v>0.377</v>
+        <v>0.376</v>
       </c>
       <c r="O12" t="n">
         <v>18.3</v>
       </c>
       <c r="P12" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.805</v>
+        <v>0.804</v>
       </c>
       <c r="R12" t="n">
         <v>11.2</v>
@@ -2537,7 +2604,7 @@
         <v>43.5</v>
       </c>
       <c r="U12" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V12" t="n">
         <v>14.6</v>
@@ -2558,13 +2625,13 @@
         <v>20.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.4</v>
+        <v>104.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.5</v>
+        <v>-1.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
         <v>19</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
         <v>4</v>
@@ -2600,22 +2667,22 @@
         <v>23</v>
       </c>
       <c r="AP12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR12" t="n">
         <v>12</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT12" t="n">
         <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
         <v>18</v>
@@ -2633,10 +2700,10 @@
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC12" t="n">
         <v>20</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -2668,43 +2735,43 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" t="n">
         <v>18</v>
       </c>
       <c r="F13" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" t="n">
-        <v>0.234</v>
+        <v>0.237</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J13" t="n">
         <v>81.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L13" t="n">
         <v>6.6</v>
       </c>
       <c r="M13" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="N13" t="n">
-        <v>0.36</v>
+        <v>0.362</v>
       </c>
       <c r="O13" t="n">
         <v>16.9</v>
       </c>
       <c r="P13" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q13" t="n">
         <v>0.74</v>
@@ -2716,37 +2783,37 @@
         <v>28.9</v>
       </c>
       <c r="T13" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="U13" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V13" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W13" t="n">
         <v>6.9</v>
       </c>
       <c r="X13" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y13" t="n">
         <v>5.1</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA13" t="n">
         <v>19.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8.6</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2758,25 +2825,25 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
         <v>16</v>
       </c>
       <c r="AN13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
         <v>28</v>
@@ -2788,10 +2855,10 @@
         <v>28</v>
       </c>
       <c r="AR13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
         <v>25</v>
@@ -2809,10 +2876,10 @@
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA13" t="n">
         <v>27</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -2871,34 +2938,34 @@
         <v>85.09999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="L14" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.361</v>
+        <v>0.365</v>
       </c>
       <c r="O14" t="n">
         <v>19.5</v>
       </c>
       <c r="P14" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.767</v>
+        <v>0.771</v>
       </c>
       <c r="R14" t="n">
         <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>31.4</v>
+        <v>31.6</v>
       </c>
       <c r="T14" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U14" t="n">
         <v>23.3</v>
@@ -2907,7 +2974,7 @@
         <v>13.6</v>
       </c>
       <c r="W14" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X14" t="n">
         <v>5.2</v>
@@ -2916,19 +2983,19 @@
         <v>4.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2952,28 +3019,28 @@
         <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM14" t="n">
         <v>15</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
         <v>12</v>
       </c>
       <c r="AP14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2991,7 +3058,7 @@
         <v>9</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ14" t="n">
         <v>12</v>
@@ -3003,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3122,7 +3189,7 @@
         <v>25</v>
       </c>
       <c r="AH15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI15" t="n">
         <v>30</v>
@@ -3131,7 +3198,7 @@
         <v>28</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
@@ -3146,16 +3213,16 @@
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
         <v>22</v>
       </c>
       <c r="AS15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT15" t="n">
         <v>29</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -3298,10 +3365,10 @@
         <v>14</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
         <v>4</v>
@@ -3316,7 +3383,7 @@
         <v>17</v>
       </c>
       <c r="AL16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM16" t="n">
         <v>10</v>
@@ -3325,13 +3392,13 @@
         <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP16" t="n">
         <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR16" t="n">
         <v>26</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" t="n">
         <v>32</v>
       </c>
       <c r="F17" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G17" t="n">
-        <v>0.416</v>
+        <v>0.41</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,7 +3481,7 @@
         <v>36.5</v>
       </c>
       <c r="J17" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K17" t="n">
         <v>0.444</v>
@@ -3423,37 +3490,37 @@
         <v>6.1</v>
       </c>
       <c r="M17" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O17" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="P17" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R17" t="n">
         <v>11.9</v>
       </c>
       <c r="S17" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="T17" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U17" t="n">
         <v>21.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X17" t="n">
         <v>3.7</v>
@@ -3462,25 +3529,25 @@
         <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AA17" t="n">
         <v>22.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.2</v>
+        <v>-1.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
         <v>20</v>
@@ -3504,10 +3571,10 @@
         <v>20</v>
       </c>
       <c r="AN17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
         <v>12</v>
@@ -3519,19 +3586,19 @@
         <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT17" t="n">
         <v>20</v>
       </c>
       <c r="AU17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" t="n">
         <v>22</v>
       </c>
       <c r="F18" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18" t="n">
-        <v>0.286</v>
+        <v>0.289</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
@@ -3596,43 +3663,43 @@
         <v>36.4</v>
       </c>
       <c r="J18" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L18" t="n">
         <v>6.6</v>
       </c>
       <c r="M18" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O18" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="P18" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R18" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S18" t="n">
         <v>29.6</v>
       </c>
       <c r="T18" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U18" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V18" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W18" t="n">
         <v>6.2</v>
@@ -3647,31 +3714,31 @@
         <v>21.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-5.2</v>
+        <v>-4.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
       </c>
       <c r="AF18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ18" t="n">
         <v>7</v>
@@ -3683,28 +3750,28 @@
         <v>19</v>
       </c>
       <c r="AM18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN18" t="n">
         <v>24</v>
       </c>
       <c r="AO18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
         <v>18</v>
       </c>
       <c r="AQ18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR18" t="n">
         <v>7</v>
       </c>
       <c r="AS18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU18" t="n">
         <v>18</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" t="n">
         <v>45</v>
       </c>
       <c r="G19" t="n">
-        <v>0.416</v>
+        <v>0.408</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
@@ -3790,25 +3857,25 @@
         <v>21.1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="O19" t="n">
         <v>19</v>
       </c>
       <c r="P19" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q19" t="n">
         <v>0.778</v>
       </c>
       <c r="R19" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S19" t="n">
         <v>29.5</v>
       </c>
       <c r="T19" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="U19" t="n">
         <v>19.9</v>
@@ -3823,7 +3890,7 @@
         <v>4.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z19" t="n">
         <v>22.6</v>
@@ -3832,22 +3899,22 @@
         <v>20.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.3</v>
+        <v>-2.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF19" t="n">
         <v>20</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH19" t="n">
         <v>12</v>
@@ -3856,7 +3923,7 @@
         <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="n">
         <v>25</v>
@@ -3874,7 +3941,7 @@
         <v>14</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
         <v>12</v>
@@ -3886,7 +3953,7 @@
         <v>20</v>
       </c>
       <c r="AT19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU19" t="n">
         <v>26</v>
@@ -3901,19 +3968,19 @@
         <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ19" t="n">
         <v>25</v>
       </c>
       <c r="BA19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB19" t="n">
         <v>17</v>
       </c>
       <c r="BC19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" t="n">
         <v>47</v>
       </c>
       <c r="F20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20" t="n">
-        <v>0.618</v>
+        <v>0.627</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
@@ -3960,28 +4027,28 @@
         <v>35.4</v>
       </c>
       <c r="J20" t="n">
-        <v>77.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L20" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="N20" t="n">
         <v>0.366</v>
       </c>
       <c r="O20" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P20" t="n">
         <v>22.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R20" t="n">
         <v>10</v>
@@ -3990,7 +4057,7 @@
         <v>30</v>
       </c>
       <c r="T20" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U20" t="n">
         <v>19.8</v>
@@ -4011,22 +4078,22 @@
         <v>20.3</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>96.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
         <v>9</v>
       </c>
       <c r="AF20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG20" t="n">
         <v>9</v>
@@ -4041,13 +4108,13 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM20" t="n">
         <v>13</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>14</v>
       </c>
       <c r="AN20" t="n">
         <v>16</v>
@@ -4071,16 +4138,16 @@
         <v>24</v>
       </c>
       <c r="AU20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW20" t="n">
         <v>14</v>
       </c>
       <c r="AX20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY20" t="n">
         <v>1</v>
@@ -4095,7 +4162,7 @@
         <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -4124,43 +4191,43 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" t="n">
         <v>47</v>
       </c>
       <c r="G21" t="n">
-        <v>0.39</v>
+        <v>0.382</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J21" t="n">
-        <v>86.5</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L21" t="n">
         <v>10.1</v>
       </c>
       <c r="M21" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.36</v>
+        <v>0.359</v>
       </c>
       <c r="O21" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P21" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q21" t="n">
         <v>0.786</v>
@@ -4181,7 +4248,7 @@
         <v>14.6</v>
       </c>
       <c r="W21" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X21" t="n">
         <v>2.4</v>
@@ -4193,19 +4260,19 @@
         <v>20.6</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.6</v>
+        <v>-2.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
         <v>23</v>
@@ -4214,7 +4281,7 @@
         <v>23</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4223,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL21" t="n">
         <v>2</v>
@@ -4232,16 +4299,16 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO21" t="n">
         <v>21</v>
       </c>
       <c r="AP21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
         <v>13</v>
@@ -4259,7 +4326,7 @@
         <v>19</v>
       </c>
       <c r="AW21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,16 +4335,16 @@
         <v>22</v>
       </c>
       <c r="AZ21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB21" t="n">
         <v>4</v>
       </c>
       <c r="BC21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" t="n">
         <v>21</v>
       </c>
       <c r="F22" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G22" t="n">
-        <v>0.276</v>
+        <v>0.28</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4324,7 +4391,7 @@
         <v>36.4</v>
       </c>
       <c r="J22" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K22" t="n">
         <v>0.445</v>
@@ -4336,7 +4403,7 @@
         <v>11.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O22" t="n">
         <v>20</v>
@@ -4345,7 +4412,7 @@
         <v>25.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.785</v>
+        <v>0.786</v>
       </c>
       <c r="R22" t="n">
         <v>12.3</v>
@@ -4354,7 +4421,7 @@
         <v>30.3</v>
       </c>
       <c r="T22" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U22" t="n">
         <v>20.1</v>
@@ -4363,13 +4430,13 @@
         <v>16.3</v>
       </c>
       <c r="W22" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X22" t="n">
         <v>4.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z22" t="n">
         <v>20.3</v>
@@ -4381,16 +4448,16 @@
         <v>96.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>-6.3</v>
+        <v>-6.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
       </c>
       <c r="AF22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
         <v>27</v>
@@ -4399,13 +4466,13 @@
         <v>14</v>
       </c>
       <c r="AI22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL22" t="n">
         <v>30</v>
@@ -4414,16 +4481,16 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR22" t="n">
         <v>4</v>
@@ -4450,10 +4517,10 @@
         <v>17</v>
       </c>
       <c r="AZ22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB22" t="n">
         <v>24</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -4566,22 +4633,22 @@
         <v>7.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>3</v>
       </c>
       <c r="AG23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI23" t="n">
         <v>25</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>26</v>
       </c>
       <c r="AJ23" t="n">
         <v>26</v>
@@ -4599,7 +4666,7 @@
         <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4620,10 +4687,10 @@
         <v>29</v>
       </c>
       <c r="AV23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AX23" t="n">
         <v>6</v>
@@ -4632,7 +4699,7 @@
         <v>2</v>
       </c>
       <c r="AZ23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA23" t="n">
         <v>6</v>
@@ -4641,7 +4708,7 @@
         <v>8</v>
       </c>
       <c r="BC23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -4670,58 +4737,58 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" t="n">
         <v>40</v>
       </c>
       <c r="F24" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="n">
-        <v>0.526</v>
+        <v>0.533</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J24" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.458</v>
+        <v>0.46</v>
       </c>
       <c r="L24" t="n">
         <v>4.1</v>
       </c>
       <c r="M24" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="N24" t="n">
-        <v>0.316</v>
+        <v>0.318</v>
       </c>
       <c r="O24" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="P24" t="n">
         <v>26.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.745</v>
+        <v>0.749</v>
       </c>
       <c r="R24" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S24" t="n">
         <v>28.8</v>
       </c>
       <c r="T24" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U24" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V24" t="n">
         <v>14.3</v>
@@ -4733,7 +4800,7 @@
         <v>5</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z24" t="n">
         <v>20.2</v>
@@ -4742,13 +4809,13 @@
         <v>21.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>97.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4757,16 +4824,16 @@
         <v>14</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH24" t="n">
         <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK24" t="n">
         <v>12</v>
@@ -4781,28 +4848,28 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AP24" t="n">
         <v>6</v>
       </c>
       <c r="AQ24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR24" t="n">
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU24" t="n">
         <v>21</v>
       </c>
       <c r="AV24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW24" t="n">
         <v>5</v>
@@ -4811,7 +4878,7 @@
         <v>12</v>
       </c>
       <c r="AY24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ24" t="n">
         <v>8</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" t="n">
         <v>42</v>
       </c>
       <c r="F25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" t="n">
-        <v>0.545</v>
+        <v>0.553</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="J25" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K25" t="n">
         <v>0.505</v>
@@ -4882,13 +4949,13 @@
         <v>17.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.384</v>
+        <v>0.385</v>
       </c>
       <c r="O25" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="P25" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="Q25" t="n">
         <v>0.747</v>
@@ -4897,10 +4964,10 @@
         <v>10.8</v>
       </c>
       <c r="S25" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T25" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U25" t="n">
         <v>23.2</v>
@@ -4921,28 +4988,28 @@
         <v>20.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>109.5</v>
+        <v>109.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>1</v>
@@ -4969,7 +5036,7 @@
         <v>5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR25" t="n">
         <v>17</v>
@@ -4987,7 +5054,7 @@
         <v>27</v>
       </c>
       <c r="AW25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX25" t="n">
         <v>11</v>
@@ -5005,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="BC25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -5049,28 +5116,28 @@
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J26" t="n">
-        <v>79.3</v>
+        <v>79.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.465</v>
+        <v>0.463</v>
       </c>
       <c r="L26" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O26" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P26" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
         <v>0.768</v>
@@ -5079,10 +5146,10 @@
         <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T26" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U26" t="n">
         <v>20.4</v>
@@ -5097,28 +5164,28 @@
         <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AE26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
         <v>7</v>
@@ -5136,7 +5203,7 @@
         <v>8</v>
       </c>
       <c r="AL26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM26" t="n">
         <v>12</v>
@@ -5145,10 +5212,10 @@
         <v>7</v>
       </c>
       <c r="AO26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP26" t="n">
         <v>17</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>16</v>
       </c>
       <c r="AQ26" t="n">
         <v>16</v>
@@ -5157,10 +5224,10 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AU26" t="n">
         <v>19</v>
@@ -5169,7 +5236,7 @@
         <v>6</v>
       </c>
       <c r="AW26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX26" t="n">
         <v>13</v>
@@ -5178,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA26" t="n">
         <v>12</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" t="n">
-        <v>0.211</v>
+        <v>0.213</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
@@ -5234,10 +5301,10 @@
         <v>36.5</v>
       </c>
       <c r="J27" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L27" t="n">
         <v>7.1</v>
@@ -5252,19 +5319,19 @@
         <v>21</v>
       </c>
       <c r="P27" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.801</v>
+        <v>0.803</v>
       </c>
       <c r="R27" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S27" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="T27" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="U27" t="n">
         <v>19.8</v>
@@ -5276,7 +5343,7 @@
         <v>7.1</v>
       </c>
       <c r="X27" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y27" t="n">
         <v>5.1</v>
@@ -5294,7 +5361,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5345,7 +5412,7 @@
         <v>30</v>
       </c>
       <c r="AU27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV27" t="n">
         <v>26</v>
@@ -5354,7 +5421,7 @@
         <v>20</v>
       </c>
       <c r="AX27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY27" t="n">
         <v>21</v>
@@ -5366,7 +5433,7 @@
         <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -5398,37 +5465,37 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" t="n">
         <v>49</v>
       </c>
       <c r="F28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G28" t="n">
-        <v>0.645</v>
+        <v>0.653</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
       </c>
       <c r="I28" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J28" t="n">
-        <v>79.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.466</v>
+        <v>0.467</v>
       </c>
       <c r="L28" t="n">
         <v>7.7</v>
       </c>
       <c r="M28" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.387</v>
+        <v>0.388</v>
       </c>
       <c r="O28" t="n">
         <v>15.1</v>
@@ -5443,13 +5510,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T28" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U28" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V28" t="n">
         <v>11.8</v>
@@ -5464,25 +5531,25 @@
         <v>4.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA28" t="n">
         <v>18.3</v>
       </c>
       <c r="AB28" t="n">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
       </c>
       <c r="AF28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG28" t="n">
         <v>6</v>
@@ -5497,13 +5564,13 @@
         <v>20</v>
       </c>
       <c r="AK28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL28" t="n">
         <v>6</v>
       </c>
       <c r="AM28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN28" t="n">
         <v>3</v>
@@ -5521,13 +5588,13 @@
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT28" t="n">
         <v>19</v>
       </c>
       <c r="AU28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV28" t="n">
         <v>1</v>
@@ -5536,7 +5603,7 @@
         <v>30</v>
       </c>
       <c r="AX28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY28" t="n">
         <v>9</v>
@@ -5551,7 +5618,7 @@
         <v>23</v>
       </c>
       <c r="BC28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" t="n">
         <v>30</v>
       </c>
       <c r="F29" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G29" t="n">
-        <v>0.395</v>
+        <v>0.4</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J29" t="n">
-        <v>80.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K29" t="n">
         <v>0.458</v>
@@ -5610,25 +5677,25 @@
         <v>15.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O29" t="n">
         <v>18.8</v>
       </c>
       <c r="P29" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q29" t="n">
         <v>0.827</v>
       </c>
       <c r="R29" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="S29" t="n">
         <v>30.8</v>
       </c>
       <c r="T29" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U29" t="n">
         <v>22.1</v>
@@ -5643,10 +5710,10 @@
         <v>4.7</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA29" t="n">
         <v>20.2</v>
@@ -5655,16 +5722,16 @@
         <v>98.59999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.8</v>
+        <v>-2.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE29" t="n">
         <v>22</v>
       </c>
       <c r="AF29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG29" t="n">
         <v>22</v>
@@ -5688,13 +5755,13 @@
         <v>23</v>
       </c>
       <c r="AN29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO29" t="n">
         <v>16</v>
       </c>
       <c r="AP29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5706,7 +5773,7 @@
         <v>11</v>
       </c>
       <c r="AT29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU29" t="n">
         <v>6</v>
@@ -5724,7 +5791,7 @@
         <v>11</v>
       </c>
       <c r="AZ29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA29" t="n">
         <v>22</v>
@@ -5733,7 +5800,7 @@
         <v>16</v>
       </c>
       <c r="BC29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" t="n">
         <v>30</v>
       </c>
       <c r="G30" t="n">
-        <v>0.61</v>
+        <v>0.605</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J30" t="n">
         <v>80.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L30" t="n">
         <v>4.8</v>
@@ -5792,13 +5859,13 @@
         <v>13.8</v>
       </c>
       <c r="N30" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O30" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="P30" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="Q30" t="n">
         <v>0.771</v>
@@ -5816,7 +5883,7 @@
         <v>24.7</v>
       </c>
       <c r="V30" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W30" t="n">
         <v>8.800000000000001</v>
@@ -5828,22 +5895,22 @@
         <v>5.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="AB30" t="n">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF30" t="n">
         <v>10</v>
@@ -5852,7 +5919,7 @@
         <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
@@ -5894,13 +5961,13 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW30" t="n">
         <v>1</v>
       </c>
       <c r="AX30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY30" t="n">
         <v>20</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
@@ -6028,7 +6095,7 @@
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
@@ -6061,7 +6128,7 @@
         <v>19</v>
       </c>
       <c r="AQ31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR31" t="n">
         <v>8</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-5-2008-09</t>
+          <t>2009-04-05</t>
         </is>
       </c>
     </row>
